--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H2">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I2">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J2">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>0.3566315373315556</v>
+        <v>0.390668650845</v>
       </c>
       <c r="R2">
-        <v>3.209683835984</v>
+        <v>3.516017857605</v>
       </c>
       <c r="S2">
-        <v>0.0005593001168372352</v>
+        <v>0.000611338887259559</v>
       </c>
       <c r="T2">
-        <v>0.000563635635960059</v>
+        <v>0.0006146897240915058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H3">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I3">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J3">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>65.318300089872</v>
+        <v>67.94842358369631</v>
       </c>
       <c r="R3">
-        <v>587.8647008088479</v>
+        <v>611.5358122532668</v>
       </c>
       <c r="S3">
-        <v>0.1024377517064936</v>
+        <v>0.1063292730933231</v>
       </c>
       <c r="T3">
-        <v>0.1032318170357377</v>
+        <v>0.1069120792128428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H4">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I4">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J4">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>2.988360140997333</v>
+        <v>1.2136733432785</v>
       </c>
       <c r="R4">
-        <v>17.930160845984</v>
+        <v>7.282040059670998</v>
       </c>
       <c r="S4">
-        <v>0.004686602280094136</v>
+        <v>0.001899219990064793</v>
       </c>
       <c r="T4">
-        <v>0.003148620900910042</v>
+        <v>0.001273086592953627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H5">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I5">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J5">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>60.83648444711289</v>
+        <v>55.56755632800665</v>
       </c>
       <c r="R5">
-        <v>547.528360024016</v>
+        <v>500.1080069520599</v>
       </c>
       <c r="S5">
-        <v>0.09540898461709377</v>
+        <v>0.08695503972437883</v>
       </c>
       <c r="T5">
-        <v>0.09614856514791098</v>
+        <v>0.08743165286956574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,40 +794,40 @@
         <v>3.495231</v>
       </c>
       <c r="I6">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J6">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>0.428844260673</v>
+        <v>0.590361992055</v>
       </c>
       <c r="R6">
-        <v>3.859598346057</v>
+        <v>5.313257928495</v>
       </c>
       <c r="S6">
-        <v>0.0006725502934879225</v>
+        <v>0.0009238295484488053</v>
       </c>
       <c r="T6">
-        <v>0.0006777636924676444</v>
+        <v>0.0009288931917764197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -856,10 +856,10 @@
         <v>3.495231</v>
       </c>
       <c r="I7">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J7">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>78.54431024258099</v>
+        <v>102.680792577297</v>
       </c>
       <c r="R7">
-        <v>706.8987921832289</v>
+        <v>924.1271331956729</v>
       </c>
       <c r="S7">
-        <v>0.1231799134318697</v>
+        <v>0.1606803139728756</v>
       </c>
       <c r="T7">
-        <v>0.1241347654945719</v>
+        <v>0.1615610260058409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>3.495231</v>
       </c>
       <c r="I8">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J8">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>3.593459806947</v>
+        <v>1.8340519800915</v>
       </c>
       <c r="R8">
-        <v>21.560758841682</v>
+        <v>11.004311880549</v>
       </c>
       <c r="S8">
-        <v>0.005635571393695507</v>
+        <v>0.002870021165660875</v>
       </c>
       <c r="T8">
-        <v>0.003786171050640976</v>
+        <v>0.001923834777755972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.495231</v>
       </c>
       <c r="I9">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J9">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>73.15499181557701</v>
+        <v>83.97134803745999</v>
       </c>
       <c r="R9">
-        <v>658.394926340193</v>
+        <v>755.74213233714</v>
       </c>
       <c r="S9">
-        <v>0.1147279227625922</v>
+        <v>0.1314027894479646</v>
       </c>
       <c r="T9">
-        <v>0.1156172576439647</v>
+        <v>0.1321230271358967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H10">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I10">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J10">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>0.5008969908935555</v>
+        <v>0.6103633843450001</v>
       </c>
       <c r="R10">
-        <v>4.508072918041999</v>
+        <v>5.493270459105001</v>
       </c>
       <c r="S10">
-        <v>0.0007855495552254871</v>
+        <v>0.0009551287808795693</v>
       </c>
       <c r="T10">
-        <v>0.0007916388890483816</v>
+        <v>0.0009603639798255588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H11">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I11">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J11">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>91.741017101586</v>
+        <v>106.1596053068185</v>
       </c>
       <c r="R11">
-        <v>825.6691539142738</v>
+        <v>955.436447761367</v>
       </c>
       <c r="S11">
-        <v>0.1438761192226837</v>
+        <v>0.1661241434136308</v>
       </c>
       <c r="T11">
-        <v>0.1449914017828501</v>
+        <v>0.1670346938628609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H12">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I12">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J12">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>4.197218825715333</v>
+        <v>1.896189437495167</v>
       </c>
       <c r="R12">
-        <v>25.183312954292</v>
+        <v>11.377136624971</v>
       </c>
       <c r="S12">
-        <v>0.006582437989581346</v>
+        <v>0.002967257132724349</v>
       </c>
       <c r="T12">
-        <v>0.004422308656522866</v>
+        <v>0.001989014065394559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,14 +1207,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H13">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I13">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J13">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>85.44620653605088</v>
+        <v>86.81628706778446</v>
       </c>
       <c r="R13">
-        <v>769.015858824458</v>
+        <v>781.3465836100601</v>
       </c>
       <c r="S13">
-        <v>0.1340040582403177</v>
+        <v>0.1358546999285163</v>
       </c>
       <c r="T13">
-        <v>0.1350428156793868</v>
+        <v>0.136599339181475</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H14">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I14">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J14">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>0.4696314640296667</v>
+        <v>0.0133192571325</v>
       </c>
       <c r="R14">
-        <v>4.226683176267</v>
+        <v>0.079915542795</v>
       </c>
       <c r="S14">
-        <v>0.0007365162785871019</v>
+        <v>2.084267528734245E-05</v>
       </c>
       <c r="T14">
-        <v>0.0007422255218251372</v>
+        <v>1.397127800276381E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H15">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I15">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J15">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>86.014627670511</v>
+        <v>2.316598794148833</v>
       </c>
       <c r="R15">
-        <v>774.1316490345989</v>
+        <v>13.899592764893</v>
       </c>
       <c r="S15">
-        <v>0.1348955049398863</v>
+        <v>0.003625135843325396</v>
       </c>
       <c r="T15">
-        <v>0.1359411725942344</v>
+        <v>0.002430003824683708</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H16">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I16">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J16">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>3.935232308857</v>
+        <v>0.04137835810225</v>
       </c>
       <c r="R16">
-        <v>23.611393853142</v>
+        <v>0.165513432409</v>
       </c>
       <c r="S16">
-        <v>0.006171568298737319</v>
+        <v>6.475103478137406E-05</v>
       </c>
       <c r="T16">
-        <v>0.004146272240623721</v>
+        <v>2.893597536226052E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0262855</v>
+      </c>
+      <c r="H17">
+        <v>0.052571</v>
+      </c>
+      <c r="I17">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J17">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>72.07364666666666</v>
+      </c>
+      <c r="N17">
+        <v>216.22094</v>
+      </c>
+      <c r="O17">
+        <v>0.4441129584835175</v>
+      </c>
+      <c r="P17">
+        <v>0.4455535891391496</v>
+      </c>
+      <c r="Q17">
+        <v>1.894491839456667</v>
+      </c>
+      <c r="R17">
+        <v>11.36695103674</v>
+      </c>
+      <c r="S17">
+        <v>0.00296460064187558</v>
+      </c>
+      <c r="T17">
+        <v>0.001987233364421759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.312438</v>
+      </c>
+      <c r="I18">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J18">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.506715</v>
+      </c>
+      <c r="N18">
+        <v>1.520145</v>
+      </c>
+      <c r="O18">
+        <v>0.003122343715987576</v>
+      </c>
+      <c r="P18">
+        <v>0.003132472094339857</v>
+      </c>
+      <c r="Q18">
+        <v>0.3905823403900001</v>
+      </c>
+      <c r="R18">
+        <v>3.51524106351</v>
+      </c>
+      <c r="S18">
+        <v>0.0006112038241123</v>
+      </c>
+      <c r="T18">
+        <v>0.0006145539206436087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.312438</v>
+      </c>
+      <c r="I19">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J19">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>88.13219433333332</v>
+      </c>
+      <c r="N19">
+        <v>264.396583</v>
+      </c>
+      <c r="O19">
+        <v>0.5430646480820168</v>
+      </c>
+      <c r="P19">
+        <v>0.5448262620252092</v>
+      </c>
+      <c r="Q19">
+        <v>67.93341173326155</v>
+      </c>
+      <c r="R19">
+        <v>611.400705599354</v>
+      </c>
+      <c r="S19">
+        <v>0.1063057817588619</v>
+      </c>
+      <c r="T19">
+        <v>0.1068884591189809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.275887</v>
-      </c>
-      <c r="H17">
-        <v>3.827661</v>
-      </c>
-      <c r="I17">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="J17">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>62.78983433333334</v>
-      </c>
-      <c r="N17">
-        <v>188.369503</v>
-      </c>
-      <c r="O17">
-        <v>0.4697806144928209</v>
-      </c>
-      <c r="P17">
-        <v>0.4734222065046071</v>
-      </c>
-      <c r="Q17">
-        <v>80.11273335805367</v>
-      </c>
-      <c r="R17">
-        <v>721.0146002224831</v>
-      </c>
-      <c r="S17">
-        <v>0.1256396488728174</v>
-      </c>
-      <c r="T17">
-        <v>0.1266135680333447</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.312438</v>
+      </c>
+      <c r="I20">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J20">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.5741895</v>
+      </c>
+      <c r="N20">
+        <v>3.148379</v>
+      </c>
+      <c r="O20">
+        <v>0.009700049718478087</v>
+      </c>
+      <c r="P20">
+        <v>0.006487676741301404</v>
+      </c>
+      <c r="Q20">
+        <v>1.213405206333667</v>
+      </c>
+      <c r="R20">
+        <v>7.280431238002</v>
+      </c>
+      <c r="S20">
+        <v>0.001898800395246696</v>
+      </c>
+      <c r="T20">
+        <v>0.001272805329834985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.312438</v>
+      </c>
+      <c r="I21">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J21">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>72.07364666666666</v>
+      </c>
+      <c r="N21">
+        <v>216.22094</v>
+      </c>
+      <c r="O21">
+        <v>0.4441129584835175</v>
+      </c>
+      <c r="P21">
+        <v>0.4455535891391496</v>
+      </c>
+      <c r="Q21">
+        <v>55.55527978352444</v>
+      </c>
+      <c r="R21">
+        <v>499.99751805172</v>
+      </c>
+      <c r="S21">
+        <v>0.08693582874078208</v>
+      </c>
+      <c r="T21">
+        <v>0.08741233658779028</v>
       </c>
     </row>
   </sheetData>
